--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1184741.75549223</v>
+        <v>1178593.969382977</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969142</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10858478.48987686</v>
+        <v>11114911.46156051</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>350.8547101970327</v>
+        <v>26.23564805440382</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906499</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833737</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519699</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>207.9890302046426</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>2.688938697875882</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>222.792508443982</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>258.995486025176</v>
       </c>
       <c r="G5" t="n">
         <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>181.0919561226084</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.34453374551208</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.95324170902644</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>37.76420925926037</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.71437374394026</v>
+        <v>92.71437374394024</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>206.286432659679</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>76.1316524058943</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>126.7498226612777</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.86209348694693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>324.3727542084977</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.86209348694693</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>138.2893995353463</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2010,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2247,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>99.9742741983347</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>13.72582864853726</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520993</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>253.2918698186444</v>
+        <v>202.9133247598012</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>60.11729550773637</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>245.879692121443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>258.7598825930173</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>212.4076860934775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1186.146974221559</v>
+        <v>538.7037775204458</v>
       </c>
       <c r="C2" t="n">
-        <v>817.1844572811472</v>
+        <v>538.7037775204458</v>
       </c>
       <c r="D2" t="n">
-        <v>817.1844572811472</v>
+        <v>180.4380789136953</v>
       </c>
       <c r="E2" t="n">
-        <v>817.1844572811472</v>
+        <v>180.4380789136953</v>
       </c>
       <c r="F2" t="n">
-        <v>406.1985524915396</v>
+        <v>173.4925781644918</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073759</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872722</v>
+        <v>455.1003844723717</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054635</v>
+        <v>692.7231656905637</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463066</v>
+        <v>988.7937322481667</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.42561269865</v>
+        <v>1294.268838483752</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015284</v>
+        <v>1758.668415689754</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394155</v>
+        <v>2277.553464068625</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466515</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2336.351904522572</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>2336.351904522572</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>2336.351904522572</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>1962.886146261492</v>
+        <v>925.3036175845675</v>
       </c>
       <c r="Y2" t="n">
-        <v>1572.746814285681</v>
+        <v>925.3036175845675</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884145</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093829</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369552</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496867</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>1161.911999152942</v>
+        <v>1161.911999152943</v>
       </c>
       <c r="M3" t="n">
-        <v>1425.851530648429</v>
+        <v>1472.557493554223</v>
       </c>
       <c r="N3" t="n">
-        <v>1711.185401081761</v>
+        <v>2113.580703174116</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972038</v>
+        <v>2352.385654925575</v>
       </c>
       <c r="P3" t="n">
         <v>2524.714615879285</v>
@@ -4442,10 +4442,10 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.1216277296958</v>
+        <v>780.9800723632302</v>
       </c>
       <c r="C4" t="n">
-        <v>220.1216277296958</v>
+        <v>780.9800723632302</v>
       </c>
       <c r="D4" t="n">
-        <v>220.1216277296958</v>
+        <v>630.8634329508944</v>
       </c>
       <c r="E4" t="n">
-        <v>220.1216277296958</v>
+        <v>482.9503393685013</v>
       </c>
       <c r="F4" t="n">
-        <v>220.1216277296958</v>
+        <v>336.060391870591</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.034527330184</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159871</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341311</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666712</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092719</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357427</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993471</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702565</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="S4" t="n">
-        <v>991.0700018628668</v>
+        <v>991.0700018628692</v>
       </c>
       <c r="T4" t="n">
-        <v>766.6588426383048</v>
+        <v>780.9800723632302</v>
       </c>
       <c r="U4" t="n">
-        <v>477.5222156304068</v>
+        <v>780.9800723632302</v>
       </c>
       <c r="V4" t="n">
-        <v>222.83772742452</v>
+        <v>780.9800723632302</v>
       </c>
       <c r="W4" t="n">
-        <v>220.1216277296958</v>
+        <v>780.9800723632302</v>
       </c>
       <c r="X4" t="n">
-        <v>220.1216277296958</v>
+        <v>780.9800723632302</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.1216277296958</v>
+        <v>780.9800723632302</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1991.484070057702</v>
+        <v>1825.636517438855</v>
       </c>
       <c r="C5" t="n">
-        <v>1622.52155311729</v>
+        <v>1456.674000498444</v>
       </c>
       <c r="D5" t="n">
-        <v>1264.25585451054</v>
+        <v>1098.408301891693</v>
       </c>
       <c r="E5" t="n">
-        <v>878.4676019122953</v>
+        <v>1098.408301891693</v>
       </c>
       <c r="F5" t="n">
-        <v>467.4816971226878</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
         <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477384</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="V5" t="n">
-        <v>2589.992766140986</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="W5" t="n">
-        <v>2589.992766140986</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="X5" t="n">
-        <v>2216.527007879906</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="Y5" t="n">
-        <v>2216.527007879906</v>
+        <v>2212.236357502977</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258289</v>
+        <v>563.7673318682816</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421436</v>
+        <v>861.0792809845964</v>
       </c>
       <c r="M6" t="n">
-        <v>1155.119369856727</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N6" t="n">
-        <v>1545.528931182469</v>
+        <v>1617.794731802664</v>
       </c>
       <c r="O6" t="n">
-        <v>1880.457611898</v>
+        <v>1952.723412518195</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.79985532281972</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="C7" t="n">
-        <v>51.79985532281972</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D7" t="n">
-        <v>51.79985532281972</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E7" t="n">
-        <v>51.79985532281972</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281972</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
         <v>51.79985532281972</v>
@@ -4749,28 +4749,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916873</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1125.478067458854</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>836.3602904692523</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>581.6758022633654</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>292.2586322264048</v>
+        <v>1464.062502353264</v>
       </c>
       <c r="X7" t="n">
-        <v>64.26908132838747</v>
+        <v>1236.072951455246</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.79985532281972</v>
+        <v>1015.280372311716</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1633.570857233913</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="C8" t="n">
-        <v>1633.570857233913</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="D8" t="n">
-        <v>1633.570857233913</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="E8" t="n">
         <v>1247.782604635669</v>
@@ -4798,58 +4798,58 @@
         <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J8" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135513</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.81558556073</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.81558556073</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.81558556073</v>
+        <v>2003.590997961806</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.81558556073</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.81558556073</v>
+        <v>1634.38244469979</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.34982729965</v>
+        <v>1634.38244469979</v>
       </c>
       <c r="Y8" t="n">
-        <v>1702.210495323839</v>
+        <v>1634.38244469979</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258289</v>
+        <v>563.7673318682819</v>
       </c>
       <c r="L9" t="n">
-        <v>942.9699568457228</v>
+        <v>861.0792809845967</v>
       </c>
       <c r="M9" t="n">
-        <v>1309.275846338048</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N9" t="n">
-        <v>1699.685407663791</v>
+        <v>1617.794731802665</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.735752851538</v>
+        <v>1952.723412518196</v>
       </c>
       <c r="P9" t="n">
         <v>2445.212480716556</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.2352583635267</v>
+        <v>518.7657712454554</v>
       </c>
       <c r="C10" t="n">
-        <v>473.2352583635267</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="D10" t="n">
-        <v>473.2352583635267</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E10" t="n">
-        <v>325.3221647811336</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="F10" t="n">
-        <v>325.3221647811336</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="G10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080555</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225446</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317425</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
-        <v>1391.602671897099</v>
+        <v>1391.6026718971</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="S10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="T10" t="n">
-        <v>1321.927733452885</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="U10" t="n">
-        <v>1032.809956463284</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="V10" t="n">
-        <v>778.1254682573968</v>
+        <v>1438.613536154203</v>
       </c>
       <c r="W10" t="n">
-        <v>778.1254682573968</v>
+        <v>1149.196366117243</v>
       </c>
       <c r="X10" t="n">
-        <v>550.1359173593795</v>
+        <v>921.2068152192253</v>
       </c>
       <c r="Y10" t="n">
-        <v>473.2352583635267</v>
+        <v>700.4142360756952</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796261</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8079389392144</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>194.5422403324639</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>66.51211643218342</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218342</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943748</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1134.908724368016</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1134.908724368016</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1134.908724368016</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1134.908724368016</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1320.35562273557</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1320.35562273557</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.35562273557</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>2097.094794775503</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>2097.094794775503</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>1706.955462799692</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1134.908724368016</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1134.908724368016</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1134.908724368016</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1134.908724368016</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,7 +5551,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5734,67 +5734,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558399</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630492</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D22" t="n">
-        <v>2438.670847218157</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E22" t="n">
-        <v>2337.686731866303</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F22" t="n">
-        <v>2337.686731866303</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430191</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532174</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388639</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6171,10 +6171,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
         <v>2171.280006238955</v>
@@ -6214,37 +6214,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6454,10 +6454,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6469,16 +6469,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3260.450525729772</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C31" t="n">
-        <v>3091.514342801865</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D31" t="n">
-        <v>2941.39770338953</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>2793.484609807137</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4434.982778844407</v>
+        <v>1772.498126207679</v>
       </c>
       <c r="V31" t="n">
-        <v>4180.29829063852</v>
+        <v>1517.813638001792</v>
       </c>
       <c r="W31" t="n">
-        <v>3890.88112060156</v>
+        <v>1228.396467964831</v>
       </c>
       <c r="X31" t="n">
-        <v>3662.891569703542</v>
+        <v>1000.406917066814</v>
       </c>
       <c r="Y31" t="n">
-        <v>3442.098990560012</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,10 +6952,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7180,13 +7180,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3972.967823953646</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3972.967823953646</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,7 +7393,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7405,10 +7405,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7490,28 +7490,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3173.601046153952</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>3173.601046153952</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>3173.601046153952</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>151.6735093079812</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>191.1953109993611</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8002,7 +8002,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47.17774030888091</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945058</v>
       </c>
       <c r="O3" t="n">
-        <v>87.99713246345266</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>191.4694788103611</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>220.1297156654648</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906578</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>347.1830914177568</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>162.7491560325414</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>245.467010437718</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>20.18437503906574</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>255.1805474109841</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>136.9698866949904</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>24.86821450891534</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.9698866949904</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>10.32607348286601</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844823447</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>131.695219374394</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>32.89260457059976</v>
+        <v>83.27114962944293</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.45968844823106</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>226.0671788815078</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.3047822678011</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>27.76311574357368</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>13.30196929555964</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>998373.7531778435</v>
+        <v>998373.7531778434</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>975367.4874819902</v>
+        <v>975367.4874819901</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>806832.6782667747</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>806832.6782667747</v>
+        <v>953886.7503208683</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>953886.7503208682</v>
+        <v>953886.7503208685</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>953886.7503208681</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>953886.7503208685</v>
+        <v>953886.7503208683</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>953886.7503208682</v>
+        <v>953886.7503208685</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>953886.7503208685</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>953886.7503208685</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>953886.7503208685</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719626</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165589</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
@@ -26346,13 +26346,13 @@
         <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217536</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753976</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898934</v>
+        <v>172764.3597898924</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>175476.4059383955</v>
+        <v>500888.8677457504</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.03345982</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>45829.42896872326</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545133</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.83881516</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6110.739312017629</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6110.739312017629</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695052</v>
@@ -26447,19 +26447,19 @@
         <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699087</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150961</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-716714.8319155859</v>
+        <v>-716714.8319155867</v>
       </c>
       <c r="C6" t="n">
-        <v>76786.81379531178</v>
+        <v>76786.81379531295</v>
       </c>
       <c r="D6" t="n">
         <v>249551.1735852052</v>
       </c>
       <c r="E6" t="n">
-        <v>136253.1780047525</v>
+        <v>-144536.9625339558</v>
       </c>
       <c r="F6" t="n">
-        <v>311729.583943148</v>
+        <v>356351.9052117945</v>
       </c>
       <c r="G6" t="n">
-        <v>46856.2510063316</v>
+        <v>356351.9052117945</v>
       </c>
       <c r="H6" t="n">
-        <v>356699.2844661515</v>
+        <v>356351.9052117945</v>
       </c>
       <c r="I6" t="n">
-        <v>356699.2844661514</v>
+        <v>356351.9052117946</v>
       </c>
       <c r="J6" t="n">
-        <v>187285.2676401034</v>
+        <v>186937.8883857467</v>
       </c>
       <c r="K6" t="n">
-        <v>356699.2844661515</v>
+        <v>356351.9052117945</v>
       </c>
       <c r="L6" t="n">
-        <v>356699.2844661513</v>
+        <v>356351.9052117946</v>
       </c>
       <c r="M6" t="n">
-        <v>310869.8554974281</v>
+        <v>225467.4483075595</v>
       </c>
       <c r="N6" t="n">
-        <v>356699.2844661516</v>
+        <v>356351.9052117945</v>
       </c>
       <c r="O6" t="n">
-        <v>274563.4538707001</v>
+        <v>356351.9052117946</v>
       </c>
       <c r="P6" t="n">
-        <v>356699.2844661514</v>
+        <v>356351.9052117945</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498449</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522349</v>
+        <v>189.7254341522338</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>150.0703099434537</v>
+        <v>428.2691096918288</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483754</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>183.9032638670463</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973556</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>183.9032638670463</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973556</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>183.9032638670463</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973556</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>61.43302849801148</v>
+        <v>386.0520906406403</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885173</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994863</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,16 +27590,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>14.17801742767372</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>283.8340596387151</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159.9413332194986</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>147.8805597165354</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>105.4310422139826</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.2401196065827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>314.7805999544541</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>311.4767594581526</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>45.85121066414899</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>142.4530009462005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29027,7 +29027,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>-2.851208009312419e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090891</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625584</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066895</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611369</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014937</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682851</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658683</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485895</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775956</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330904</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325346</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282124</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494788</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072712</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674104</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743148</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307771</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859907</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261556</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.262332560511</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911972</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240732</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257154</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433295</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028909</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969222</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993425</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364542</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651427</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351906</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777202</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855589</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711385</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600313</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932505</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840044</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.15908051844</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351507</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311391</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519961</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567077</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965187</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189612</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265706</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730742</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182605</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793979</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853283</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027923</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839336</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712727</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062754</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R8" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237521</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.08466081179235</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837064</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612564</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255621</v>
+        <v>19.52107049255622</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041654</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315581</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274807</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157839</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,10 +31676,10 @@
         <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599261</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
@@ -31688,34 +31688,34 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979553</v>
       </c>
       <c r="N10" t="n">
         <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561278</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662511</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843065</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.09243013678523075</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,19 +32323,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,31 +32548,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.2560498238277</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34210,13 +34210,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.944966752077</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241376</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315064</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410124</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692774</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269027</v>
+        <v>469.0904820262647</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938087</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185456</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138492</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597328</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643752</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>582.548298084096</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691789</v>
+        <v>313.7833276780605</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407399</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O3" t="n">
-        <v>329.2142554447236</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689365</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.93752551686939</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883111</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452556</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203474</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550911</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.090032063233</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324796</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000442</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944467</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
         <v>185.6449372342476</v>
@@ -35017,13 +35017,13 @@
         <v>64.12666919171355</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>561.475427792508</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482246</v>
@@ -35032,13 +35032,13 @@
         <v>338.3117987025567</v>
       </c>
       <c r="P6" t="n">
-        <v>570.4594634530874</v>
+        <v>472.1264104786151</v>
       </c>
       <c r="Q6" t="n">
         <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225504</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.5828603915742</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153411</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755196</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873427</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495859</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510059</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961994</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171355</v>
+        <v>64.12666919171363</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057228</v>
       </c>
       <c r="L9" t="n">
-        <v>647.4981915352464</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.0059489821471</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482248</v>
       </c>
       <c r="O9" t="n">
-        <v>501.0609547350981</v>
+        <v>338.3117987025569</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>497.4637052508684</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>118.0296862297624</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.44568217978366</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266584</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912599</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597959</v>
       </c>
       <c r="N10" t="n">
         <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701675</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.7336217364322</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,19 +35971,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.2742757378062</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1178593.969382977</v>
+        <v>1181748.888725199</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>1042617.113969142</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11114911.46156051</v>
+        <v>10858478.48987686</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>26.23564805440382</v>
+        <v>109.8859454629312</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,10 +834,10 @@
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>135.5061458969641</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>207.9890302046426</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>258.995486025176</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>263.6444636653344</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>181.0919561226084</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>158.5404026796546</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>372.0433694537873</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767967</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>37.76420925926037</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.71437374394024</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>206.286432659679</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>76.60129660960749</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>186.6104237124459</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>23.10998325717174</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>203.4068132192031</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>204.0005215907908</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>138.2893995353463</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>170.8065716692277</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.42659968729146</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>13.72582864853726</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>25.52471385612634</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>74.53917159609115</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>171.9586765026952</v>
       </c>
       <c r="U31" t="n">
-        <v>202.9133247598012</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G34" t="n">
-        <v>121.8000472740347</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>60.11729550773637</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3745,10 +3745,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>258.7598825930173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>538.7037775204458</v>
+        <v>538.7037775204462</v>
       </c>
       <c r="C2" t="n">
-        <v>538.7037775204458</v>
+        <v>169.7412605800345</v>
       </c>
       <c r="D2" t="n">
-        <v>180.4380789136953</v>
+        <v>169.7412605800345</v>
       </c>
       <c r="E2" t="n">
-        <v>180.4380789136953</v>
+        <v>169.7412605800345</v>
       </c>
       <c r="F2" t="n">
-        <v>173.4925781644918</v>
+        <v>162.7957598308311</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640839</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640839</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723717</v>
+        <v>605.2571586872803</v>
       </c>
       <c r="L2" t="n">
-        <v>692.7231656905637</v>
+        <v>842.8799399054703</v>
       </c>
       <c r="M2" t="n">
-        <v>988.7937322481667</v>
+        <v>1138.950506463071</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.268838483752</v>
+        <v>1444.425612698655</v>
       </c>
       <c r="O2" t="n">
-        <v>1758.668415689754</v>
+        <v>1719.541832015287</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068625</v>
+        <v>2238.426880394156</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4363,19 +4363,19 @@
         <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459332</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.538031115761</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>1298.769375845647</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="X2" t="n">
-        <v>925.3036175845675</v>
+        <v>925.303617584568</v>
       </c>
       <c r="Y2" t="n">
-        <v>925.3036175845675</v>
+        <v>925.303617584568</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496874</v>
+        <v>323.3685994072329</v>
       </c>
       <c r="L3" t="n">
-        <v>1161.911999152943</v>
+        <v>532.9594726600624</v>
       </c>
       <c r="M3" t="n">
-        <v>1472.557493554223</v>
+        <v>796.8990041555485</v>
       </c>
       <c r="N3" t="n">
-        <v>2113.580703174116</v>
+        <v>1408.37886613662</v>
       </c>
       <c r="O3" t="n">
-        <v>2352.385654925575</v>
+        <v>2037.107513972039</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2524.714615879286</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>780.9800723632302</v>
+        <v>1086.791150136556</v>
       </c>
       <c r="C4" t="n">
-        <v>780.9800723632302</v>
+        <v>917.8549672086488</v>
       </c>
       <c r="D4" t="n">
-        <v>630.8634329508944</v>
+        <v>767.738327796313</v>
       </c>
       <c r="E4" t="n">
-        <v>482.9503393685013</v>
+        <v>619.8252342139199</v>
       </c>
       <c r="F4" t="n">
-        <v>336.060391870591</v>
+        <v>472.9352867160095</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7386194637149</v>
+        <v>304.6135143091334</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702568</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="S4" t="n">
-        <v>991.0700018628692</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="T4" t="n">
-        <v>780.9800723632302</v>
+        <v>1086.791150136556</v>
       </c>
       <c r="U4" t="n">
-        <v>780.9800723632302</v>
+        <v>1086.791150136556</v>
       </c>
       <c r="V4" t="n">
-        <v>780.9800723632302</v>
+        <v>1086.791150136556</v>
       </c>
       <c r="W4" t="n">
-        <v>780.9800723632302</v>
+        <v>1086.791150136556</v>
       </c>
       <c r="X4" t="n">
-        <v>780.9800723632302</v>
+        <v>1086.791150136556</v>
       </c>
       <c r="Y4" t="n">
-        <v>780.9800723632302</v>
+        <v>1086.791150136556</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1825.636517438855</v>
+        <v>1825.636517438856</v>
       </c>
       <c r="C5" t="n">
         <v>1456.674000498444</v>
       </c>
       <c r="D5" t="n">
-        <v>1098.408301891693</v>
+        <v>1098.408301891694</v>
       </c>
       <c r="E5" t="n">
-        <v>1098.408301891693</v>
+        <v>1098.408301891694</v>
       </c>
       <c r="F5" t="n">
-        <v>836.796699846061</v>
+        <v>687.4223971020863</v>
       </c>
       <c r="G5" t="n">
         <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.81558556073</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.236357502977</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.236357502977</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.236357502977</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="X5" t="n">
-        <v>2212.236357502977</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="Y5" t="n">
-        <v>2212.236357502977</v>
+        <v>2212.236357502978</v>
       </c>
     </row>
     <row r="6">
@@ -4631,43 +4631,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682816</v>
+        <v>426.7768722128337</v>
       </c>
       <c r="L6" t="n">
-        <v>861.0792809845964</v>
+        <v>853.4779730237867</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.385170476922</v>
+        <v>1219.783862516112</v>
       </c>
       <c r="N6" t="n">
-        <v>1617.794731802664</v>
+        <v>1860.807072136006</v>
       </c>
       <c r="O6" t="n">
-        <v>1952.723412518195</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2420.128558892024</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.6319074814764</v>
+        <v>982.2794430485947</v>
       </c>
       <c r="C7" t="n">
-        <v>664.6957245535696</v>
+        <v>813.3432601206878</v>
       </c>
       <c r="D7" t="n">
-        <v>514.5790851412338</v>
+        <v>663.226620708352</v>
       </c>
       <c r="E7" t="n">
-        <v>366.6659915588407</v>
+        <v>515.3135271259589</v>
       </c>
       <c r="F7" t="n">
-        <v>219.7760440609304</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H7" t="n">
         <v>51.79985532281972</v>
@@ -4725,52 +4725,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="V7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="W7" t="n">
-        <v>1464.062502353264</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="X7" t="n">
-        <v>1236.072951455246</v>
+        <v>1384.720487022364</v>
       </c>
       <c r="Y7" t="n">
-        <v>1015.280372311716</v>
+        <v>1163.927907878834</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1247.782604635669</v>
+        <v>1319.759455348121</v>
       </c>
       <c r="C8" t="n">
-        <v>1247.782604635669</v>
+        <v>1319.759455348121</v>
       </c>
       <c r="D8" t="n">
-        <v>1247.782604635669</v>
+        <v>1319.759455348121</v>
       </c>
       <c r="E8" t="n">
-        <v>1247.782604635669</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="F8" t="n">
-        <v>836.796699846061</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H8" t="n">
         <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
         <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135513</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
         <v>804.6133007477388</v>
@@ -4822,13 +4822,13 @@
         <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
         <v>2465.815585560731</v>
@@ -4837,19 +4837,19 @@
         <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.590997961806</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
         <v>1672.528110618235</v>
       </c>
       <c r="W8" t="n">
-        <v>1634.38244469979</v>
+        <v>1319.759455348121</v>
       </c>
       <c r="X8" t="n">
-        <v>1634.38244469979</v>
+        <v>1319.759455348121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1634.38244469979</v>
+        <v>1319.759455348121</v>
       </c>
     </row>
     <row r="9">
@@ -4868,40 +4868,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
         <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>563.7673318682819</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L9" t="n">
-        <v>861.0792809845967</v>
+        <v>599.2586963421437</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.385170476922</v>
+        <v>965.5645858344692</v>
       </c>
       <c r="N9" t="n">
-        <v>1617.794731802665</v>
+        <v>1355.974147160212</v>
       </c>
       <c r="O9" t="n">
-        <v>1952.723412518196</v>
+        <v>1690.902827875743</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.7657712454554</v>
+        <v>939.1780282016797</v>
       </c>
       <c r="C10" t="n">
-        <v>349.8295883175485</v>
+        <v>770.2418452737728</v>
       </c>
       <c r="D10" t="n">
-        <v>199.7129489052128</v>
+        <v>620.1252058614371</v>
       </c>
       <c r="E10" t="n">
-        <v>51.79985532281973</v>
+        <v>472.2121122790439</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281973</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281973</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281973</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080555</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225446</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317425</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
-        <v>1391.6026718971</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
         <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153879</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153879</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153879</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153879</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153879</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.613536154203</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>1149.196366117243</v>
+        <v>1569.608623073467</v>
       </c>
       <c r="X10" t="n">
-        <v>921.2068152192253</v>
+        <v>1341.619072175449</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.4142360756952</v>
+        <v>1120.826493031919</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1154.062717966212</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="17">
@@ -5509,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5603,10 +5603,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>422.7903292978459</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>274.8772357154528</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5952,10 +5952,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="29">
@@ -6445,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>779.6143379232838</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U31" t="n">
-        <v>1772.498126207679</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V31" t="n">
-        <v>1517.813638001792</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W31" t="n">
-        <v>1228.396467964831</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X31" t="n">
-        <v>1000.406917066814</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y31" t="n">
-        <v>779.6143379232838</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6837,16 +6837,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>216.8470138298251</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1983.7822433412</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7393,7 +7393,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7408,10 +7408,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>151.673509307991</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>191.1953109993611</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8002,7 +8002,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47.17774030888091</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945058</v>
+        <v>329.4403955027675</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>130.696112822867</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>253.1450992870218</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>220.1297156654648</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>245.467010437718</v>
+        <v>299.8549597144487</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906574</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>196.1234179510347</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>125.5054897610406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>161.2723701802167</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>10.32607348286601</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>81.33107165460027</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.8202214113364</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>131.695219374394</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>191.8807364711619</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>70.88187642684009</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="U31" t="n">
-        <v>83.27114962944293</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G34" t="n">
-        <v>43.72409101823415</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>226.0671788815078</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>27.76311574357368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>998373.7531778434</v>
+        <v>998373.7531778438</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>975367.4874819902</v>
+        <v>975367.4874819901</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>975367.4874819901</v>
+        <v>975367.4874819902</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>953886.7503208682</v>
+        <v>806832.6782667747</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>953886.7503208683</v>
+        <v>806832.678266775</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>953886.7503208685</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>953886.7503208682</v>
+        <v>953886.7503208681</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>953886.7503208685</v>
+        <v>953886.7503208683</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>953886.7503208683</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>953886.7503208685</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="14">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719626</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="E2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217538</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
+        <v>464109.2948217538</v>
+      </c>
+      <c r="M2" t="n">
         <v>464109.2948217537</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>464109.2948217538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217537</v>
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898924</v>
+        <v>172764.3597898953</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457504</v>
+        <v>175476.4059383954</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598199</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>45829.42896872336</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545131</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151599</v>
+        <v>159785.8388151603</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
         <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695052</v>
+        <v>6110.739312017629</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695052</v>
+        <v>6110.739312017629</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695052</v>
@@ -26438,13 +26438,13 @@
         <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150961</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-716714.8319155867</v>
+        <v>-716714.8319155842</v>
       </c>
       <c r="C6" t="n">
-        <v>76786.81379531295</v>
+        <v>76786.8137953101</v>
       </c>
       <c r="D6" t="n">
-        <v>249551.1735852052</v>
+        <v>249551.1735852053</v>
       </c>
       <c r="E6" t="n">
-        <v>-144536.9625339558</v>
+        <v>135905.5590749465</v>
       </c>
       <c r="F6" t="n">
-        <v>356351.9052117945</v>
+        <v>311381.9650133419</v>
       </c>
       <c r="G6" t="n">
-        <v>356351.9052117945</v>
+        <v>46821.51308089581</v>
       </c>
       <c r="H6" t="n">
-        <v>356351.9052117945</v>
+        <v>356664.5465407156</v>
       </c>
       <c r="I6" t="n">
-        <v>356351.9052117946</v>
+        <v>356664.5465407158</v>
       </c>
       <c r="J6" t="n">
-        <v>186937.8883857467</v>
+        <v>187250.5297146677</v>
       </c>
       <c r="K6" t="n">
-        <v>356351.9052117945</v>
+        <v>356664.5465407158</v>
       </c>
       <c r="L6" t="n">
-        <v>356351.9052117946</v>
+        <v>356664.5465407159</v>
       </c>
       <c r="M6" t="n">
-        <v>225467.4483075595</v>
+        <v>310835.1175719925</v>
       </c>
       <c r="N6" t="n">
-        <v>356351.9052117945</v>
+        <v>356664.5465407159</v>
       </c>
       <c r="O6" t="n">
-        <v>356351.9052117946</v>
+        <v>274528.7159452645</v>
       </c>
       <c r="P6" t="n">
-        <v>356351.9052117945</v>
+        <v>356664.5465407157</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498449</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522338</v>
+        <v>189.725434152237</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918288</v>
+        <v>150.0703099434536</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644017</v>
+        <v>183.9032638670461</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>183.9032638670461</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>183.9032638670461</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>386.0520906406403</v>
+        <v>302.4017932321129</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>14.69674176695639</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>14.17801742767372</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>147.8805597165354</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>147.8805597165349</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>105.4310422139826</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>67.16925270938256</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>9.887000618474474</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>311.4767594581526</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,10 +28070,10 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>45.85121066414899</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>209.9217017269835</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31287,25 +31287,25 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
         <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
         <v>407.9506271086971</v>
@@ -31314,7 +31314,7 @@
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179232</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
         <v>16.53694361837063</v>
@@ -31366,22 +31366,22 @@
         <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
         <v>385.9711022274806</v>
@@ -31393,13 +31393,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
         <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31463,10 +31463,10 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
         <v>76.19324275662508</v>
@@ -31475,10 +31475,10 @@
         <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265706</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730742</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182605</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793979</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853283</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027923</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839336</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712727</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062754</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086972</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237521</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179235</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837064</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612564</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,13 +31594,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255622</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583803</v>
@@ -31612,19 +31612,19 @@
         <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041654</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315581</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274807</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157839</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
@@ -31633,7 +31633,7 @@
         <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315819</v>
@@ -31676,10 +31676,10 @@
         <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.06611229599261</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
@@ -31688,16 +31688,16 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979553</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
         <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561278</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984513</v>
@@ -31706,16 +31706,16 @@
         <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662511</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843065</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523075</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>315.1028144241465</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>469.0904820262647</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>122.649588151796</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>211.7079527806359</v>
       </c>
       <c r="M3" t="n">
-        <v>313.7833276780605</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352464</v>
+        <v>617.6564262435063</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>635.0794422579995</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>492.5324261689357</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>65.93752551686885</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,25 +34941,25 @@
         <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
         <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
         <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171355</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>431.0112129403566</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>472.1264104786151</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
         <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225504</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978362</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35111,10 +35111,10 @@
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915742</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153411</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755196</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873427</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495859</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510059</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961994</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171363</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057228</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821471</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482248</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025569</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>497.4637052508684</v>
+        <v>551.8516545275991</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297624</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978366</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266584</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912599</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597959</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
         <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701675</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
         <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.7336217364322</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
